--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aa/Desktop/Rate Ractor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abc/Documents/GitHub/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E6147F3-B2F8-214F-AD88-CD39DF6A08CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{55F823EC-F12B-E843-9A45-0423905933EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1160" windowWidth="31420" windowHeight="17440" xr2:uid="{84CA38CF-C411-FF4B-83F2-1BBB1E8DF61A}"/>
+    <workbookView xWindow="1980" yWindow="5120" windowWidth="42960" windowHeight="17440" xr2:uid="{84CA38CF-C411-FF4B-83F2-1BBB1E8DF61A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Today</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>There shall be 3 * 3 * 3 permutations.</t>
+  </si>
+  <si>
+    <t>1. When the New Rate Set Effective Rate is before the quotation date, which means the rate is not even effective, assosciated permutations can be ignored.</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +443,7 @@
   <dimension ref="D5:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D3" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,70 +611,73 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
